--- a/TP3/analise covar.xlsx
+++ b/TP3/analise covar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eow\Desktop\Mestrado\GA\TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DD1D01-8261-4AAA-9E36-D1037E70BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85444EB4-C58F-4387-A067-D08FCF2A0338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="615" windowWidth="17040" windowHeight="13875" xr2:uid="{A28A1463-678F-4585-AEC7-5DF780692AB7}"/>
+    <workbookView minimized="1" xWindow="1665" yWindow="375" windowWidth="12870" windowHeight="12330" xr2:uid="{A28A1463-678F-4585-AEC7-5DF780692AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,90 +111,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Covariancia</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Empirica</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.5255249343832019E-2"/>
-          <c:y val="0.14165500145815108"/>
-          <c:w val="0.87753018372703417"/>
-          <c:h val="0.77736111111111106"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>Ared</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -205,92 +143,169 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$22</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>193.55709999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.930000000000007</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2004000000000001</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.4321000000000002</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.145099999999999</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.198</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.440799999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.6244000000000001</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.6440000000000001</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.3054000000000006</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-12.9625</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-18.436699999999998</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-10.436</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.3092999999999999</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-11.6516</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-17.717300000000002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-20.247699999999998</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-21.351199999999999</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-15.379799999999999</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.5244</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>119.5904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.097799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.4333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7707999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.888400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.3819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.3232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.7075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.0201000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.5610999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.4727999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.2466000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.8249</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.0868</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3997000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-781C-447A-9F28-EF9C4F25CB05}"/>
+              <c16:uniqueId val="{00000003-82F5-4C36-8EC4-68345064557D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>Ares</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -299,79 +314,148 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$22</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>119.5904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.28</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.097799999999999</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.4333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7707999999999999</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.888400000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5099</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.3819</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.3232</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.7075</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.0201000000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.5610999999999997</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.3179999999999996</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.4727999999999994</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9.2466000000000008</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.7698999999999998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.3100000000000001E-2</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.8249</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0868</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3997000000000002</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>193.55709999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2004000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.4321000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.145099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.440799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.6244000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.3054000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-12.9625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-18.436699999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10.436</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.3092999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-11.6516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-17.717300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20.247699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21.351199999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-15.379799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.5244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-781C-447A-9F28-EF9C4F25CB05}"/>
+              <c16:uniqueId val="{00000004-82F5-4C36-8EC4-68345064557D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -383,198 +467,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="995305727"/>
-        <c:axId val="995302815"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:v>Anom</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1.4</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1.6</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1.8</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.2000000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.4</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.6</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.8</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>3.2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>3.4</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3.6</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>3.8</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$B$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>1002.8794</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>723.68079999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>517.96479999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>414.9452</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>330.42939999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>272.072</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>187.85249999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>58.970100000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-65.241600000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-144.11349999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-201.4451</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-266.69400000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-325.18540000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-403.85500000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-453.93849999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>-489.15350000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>-465.1001</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>-428.714</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>-354.0994</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>-279.13679999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-781C-447A-9F28-EF9C4F25CB05}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="995305727"/>
+        <c:axId val="203470543"/>
+        <c:axId val="203469295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="203470543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -584,8 +500,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -612,15 +528,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995302815"/>
+        <c:crossAx val="203469295"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="995302815"/>
+        <c:axId val="203469295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,8 +559,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -671,9 +590,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995305727"/>
+        <c:crossAx val="203470543"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -768,7 +687,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -795,8 +714,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -876,11 +795,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -891,11 +805,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -907,7 +816,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -927,9 +836,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -942,10 +848,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -985,22 +891,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1105,8 +1012,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1238,19 +1145,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1264,6 +1172,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1287,23 +1206,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE18D93-00A2-483A-89B0-233267535459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A2EBAA-A3F1-44D0-9A6C-C17B9729424D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1543,7 @@
   <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="1" sqref="O7 B3:B22"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
